--- a/数据库结构文档wzgl.xlsx
+++ b/数据库结构文档wzgl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="226">
   <si>
     <t>DWBM</t>
   </si>
@@ -699,6 +699,14 @@
   </si>
   <si>
     <t>userrole（用户角色表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJSJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,17 +1077,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="4.625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2018,119 +2027,107 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>0</v>
       </c>
-      <c r="C47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>100</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
         <v>3</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H48" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>200</v>
-      </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="3"/>
+      <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>100</v>
-      </c>
-      <c r="F50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>107</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>100</v>
-      </c>
-      <c r="F52" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="4"/>
-      <c r="B53" t="s">
-        <v>109</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -2145,13 +2142,13 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -2163,16 +2160,16 @@
         <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -2187,34 +2184,34 @@
         <v>7</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
       </c>
       <c r="E56">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
       </c>
       <c r="H56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -2229,52 +2226,52 @@
         <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
       </c>
       <c r="H58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -2289,57 +2286,57 @@
         <v>7</v>
       </c>
       <c r="H60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="4"/>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>109</v>
       </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>100</v>
-      </c>
-      <c r="F62" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F63" t="s">
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
@@ -2351,274 +2348,274 @@
         <v>50</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="3"/>
+      <c r="B66" t="s">
         <v>129</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>130</v>
       </c>
-      <c r="D65" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65">
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
         <v>59</v>
       </c>
-      <c r="F65" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>109</v>
       </c>
-      <c r="C67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>100</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68" t="s">
         <v>3</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H68" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="4"/>
-      <c r="B68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68">
-        <v>200</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-      <c r="H68" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
       </c>
       <c r="E69">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
       </c>
       <c r="H69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F70" t="s">
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>200</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="4"/>
+      <c r="B72" t="s">
         <v>214</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>179</v>
       </c>
-      <c r="D71" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71">
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
         <v>10</v>
       </c>
-      <c r="F71" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>138</v>
       </c>
-      <c r="C73" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>100</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74" t="s">
         <v>3</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H74" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A74" s="3"/>
-      <c r="B74" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>50</v>
-      </c>
-      <c r="F74" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
       </c>
       <c r="E75">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
       </c>
       <c r="H75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>200</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="3"/>
+      <c r="B77" t="s">
         <v>144</v>
       </c>
-      <c r="C76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <v>100</v>
-      </c>
-      <c r="F76" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A77" s="2"/>
-      <c r="B77" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="2"/>
+      <c r="B78" t="s">
         <v>109</v>
       </c>
-      <c r="C77" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77">
-        <v>100</v>
-      </c>
-      <c r="F77" t="s">
-        <v>7</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>147</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79">
-        <v>100</v>
-      </c>
-      <c r="F79" t="s">
-        <v>3</v>
-      </c>
-      <c r="H79" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A80" s="4"/>
-      <c r="B80" t="s">
-        <v>109</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -2633,120 +2630,120 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
       </c>
       <c r="E81">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F81" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
       </c>
       <c r="E82">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
       </c>
       <c r="H82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="4"/>
+      <c r="B84" t="s">
         <v>153</v>
       </c>
-      <c r="C83" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <v>100</v>
-      </c>
-      <c r="F83" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A84" s="1"/>
-      <c r="B84" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
+      <c r="B85" t="s">
         <v>155</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>47</v>
       </c>
-      <c r="D84" t="s">
-        <v>2</v>
-      </c>
-      <c r="E84">
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85">
         <v>255</v>
       </c>
-      <c r="F84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>157</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>2</v>
-      </c>
-      <c r="E86">
-        <v>100</v>
-      </c>
-      <c r="F86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H86" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A87" s="3"/>
-      <c r="B87" t="s">
-        <v>147</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -2761,117 +2758,117 @@
         <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>100</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="3"/>
+      <c r="B89" t="s">
         <v>11</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>18</v>
       </c>
-      <c r="D88" t="s">
-        <v>2</v>
-      </c>
-      <c r="E88">
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89">
         <v>50</v>
       </c>
-      <c r="F88" t="s">
-        <v>7</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>109</v>
       </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90">
-        <v>100</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91" t="s">
         <v>3</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H91" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A91" s="4"/>
-      <c r="B91" t="s">
-        <v>159</v>
-      </c>
-      <c r="C91" t="s">
-        <v>60</v>
-      </c>
-      <c r="D91" t="s">
-        <v>60</v>
-      </c>
-      <c r="F91" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
-        <v>2</v>
-      </c>
-      <c r="E92">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F92" t="s">
         <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
       </c>
       <c r="E93">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -2886,412 +2883,412 @@
         <v>7</v>
       </c>
       <c r="H94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
         <v>2</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F95" t="s">
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
         <v>2</v>
       </c>
       <c r="E96">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
         <v>2</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
         <v>2</v>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
         <v>2</v>
       </c>
       <c r="E99">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s">
         <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
         <v>2</v>
       </c>
       <c r="E100">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" t="s">
         <v>7</v>
       </c>
       <c r="H100" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
       <c r="B101" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
         <v>2</v>
       </c>
       <c r="E101">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
         <v>7</v>
+      </c>
+      <c r="H101" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
       <c r="B102" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>50</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="4"/>
+      <c r="B103" t="s">
         <v>178</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>179</v>
       </c>
-      <c r="D102" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102">
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103">
         <v>10</v>
       </c>
-      <c r="F102" t="s">
-        <v>7</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
+      <c r="H103" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>187</v>
       </c>
-      <c r="C104" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104">
-        <v>100</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>100</v>
+      </c>
+      <c r="F105" t="s">
         <v>3</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H105" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A105" s="3"/>
-      <c r="B105" t="s">
-        <v>189</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105">
-        <v>100</v>
-      </c>
-      <c r="F105" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>100</v>
+      </c>
+      <c r="F106" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="3"/>
+      <c r="B107" t="s">
         <v>191</v>
       </c>
-      <c r="C106" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106">
-        <v>100</v>
-      </c>
-      <c r="F106" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>100</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A107" s="2"/>
-      <c r="B107" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="2"/>
+      <c r="B108" t="s">
         <v>11</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>18</v>
       </c>
-      <c r="D107" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107">
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108">
         <v>50</v>
       </c>
-      <c r="F107" t="s">
-        <v>7</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>109</v>
       </c>
-      <c r="C109" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" t="s">
-        <v>2</v>
-      </c>
-      <c r="E109">
-        <v>100</v>
-      </c>
-      <c r="F109" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>100</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+      <c r="H110" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A110" s="4"/>
-      <c r="B110" t="s">
-        <v>181</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>100</v>
-      </c>
-      <c r="F110" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C111" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>100</v>
       </c>
       <c r="F111" t="s">
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
       <c r="B112" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D112" t="s">
-        <v>2</v>
-      </c>
-      <c r="E112">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F112" t="s">
         <v>7</v>
       </c>
       <c r="H112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
       <c r="B113" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>50</v>
+      </c>
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+      <c r="H113" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="4"/>
+      <c r="B114" t="s">
         <v>155</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>47</v>
       </c>
-      <c r="D113" t="s">
-        <v>2</v>
-      </c>
-      <c r="E113">
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114">
         <v>255</v>
       </c>
-      <c r="F113" t="s">
-        <v>7</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
+      <c r="H114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>193</v>
       </c>
-      <c r="C115" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
-        <v>2</v>
-      </c>
-      <c r="E115">
-        <v>100</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>100</v>
+      </c>
+      <c r="F116" t="s">
         <v>3</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H116" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A116" s="3"/>
-      <c r="B116" t="s">
-        <v>195</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>2</v>
-      </c>
-      <c r="E116">
-        <v>100</v>
-      </c>
-      <c r="F116" t="s">
-        <v>7</v>
-      </c>
-      <c r="H116" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
@@ -3306,13 +3303,13 @@
         <v>7</v>
       </c>
       <c r="H117" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
@@ -3327,99 +3324,99 @@
         <v>7</v>
       </c>
       <c r="H118" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
         <v>2</v>
       </c>
       <c r="E119">
+        <v>100</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" t="s">
         <v>200</v>
-      </c>
-      <c r="F119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C120" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
         <v>2</v>
       </c>
       <c r="E120">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F120" t="s">
         <v>7</v>
       </c>
       <c r="H120" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>100</v>
+      </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+      <c r="H121" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="3"/>
+      <c r="B122" t="s">
         <v>205</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>101</v>
       </c>
-      <c r="D121" t="s">
-        <v>2</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>7</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A123" s="4" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>193</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>2</v>
-      </c>
-      <c r="E123">
-        <v>100</v>
-      </c>
-      <c r="F123" t="s">
-        <v>3</v>
-      </c>
-      <c r="H123" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A124" s="4"/>
-      <c r="B124" t="s">
-        <v>207</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
@@ -3434,24 +3431,45 @@
         <v>3</v>
       </c>
       <c r="H124" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="4"/>
+      <c r="B125" t="s">
+        <v>207</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>100</v>
+      </c>
+      <c r="F125" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" t="s">
         <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A1:A45"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A115:A121"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A90:A102"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A68:A72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库结构文档wzgl.xlsx
+++ b/数据库结构文档wzgl.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3457,11 +3457,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A116:A122"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A110:A114"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A80:A84"/>
     <mergeCell ref="A87:A89"/>
@@ -3470,6 +3465,11 @@
     <mergeCell ref="A53:A61"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A116:A122"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A110:A114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
